--- a/Code/Results/Cases/Case_4_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043054202670719</v>
+        <v>1.081400327803546</v>
       </c>
       <c r="D2">
-        <v>1.04999262679975</v>
+        <v>1.074562766688935</v>
       </c>
       <c r="E2">
-        <v>1.05855069793519</v>
+        <v>1.095227783457438</v>
       </c>
       <c r="F2">
-        <v>1.061073971240231</v>
+        <v>1.102538653272681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066196893794958</v>
+        <v>1.062478403897568</v>
       </c>
       <c r="J2">
-        <v>1.064019236895084</v>
+        <v>1.08627509629059</v>
       </c>
       <c r="K2">
-        <v>1.060796798047237</v>
+        <v>1.077251649604056</v>
       </c>
       <c r="L2">
-        <v>1.069250422590941</v>
+        <v>1.097863121809419</v>
       </c>
       <c r="M2">
-        <v>1.071743299848578</v>
+        <v>1.105155566555029</v>
       </c>
       <c r="N2">
-        <v>1.065530266256187</v>
+        <v>1.087817731524818</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.052169276649182</v>
+        <v>1.083042002065808</v>
       </c>
       <c r="D3">
-        <v>1.057329551668496</v>
+        <v>1.07585574606842</v>
       </c>
       <c r="E3">
-        <v>1.067537335358184</v>
+        <v>1.096900055763648</v>
       </c>
       <c r="F3">
-        <v>1.070668745193265</v>
+        <v>1.104353676254857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070465225240387</v>
+        <v>1.063118674605324</v>
       </c>
       <c r="J3">
-        <v>1.071332173610941</v>
+        <v>1.087575281359329</v>
       </c>
       <c r="K3">
-        <v>1.067277901483213</v>
+        <v>1.078360610103977</v>
       </c>
       <c r="L3">
-        <v>1.077373274227419</v>
+        <v>1.099354377496846</v>
       </c>
       <c r="M3">
-        <v>1.080470727033754</v>
+        <v>1.106790592075053</v>
       </c>
       <c r="N3">
-        <v>1.072853588180986</v>
+        <v>1.089119763005488</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.057842704700013</v>
+        <v>1.084100554421431</v>
       </c>
       <c r="D4">
-        <v>1.061892324862997</v>
+        <v>1.076688553059084</v>
       </c>
       <c r="E4">
-        <v>1.073135842833984</v>
+        <v>1.097978731247905</v>
       </c>
       <c r="F4">
-        <v>1.07664934880801</v>
+        <v>1.105524910330211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073104793729993</v>
+        <v>1.063529521904468</v>
       </c>
       <c r="J4">
-        <v>1.075874213979802</v>
+        <v>1.088412467652522</v>
       </c>
       <c r="K4">
-        <v>1.071297024938528</v>
+        <v>1.079073795846287</v>
       </c>
       <c r="L4">
-        <v>1.082424990740541</v>
+        <v>1.10031544142448</v>
       </c>
       <c r="M4">
-        <v>1.085902989917291</v>
+        <v>1.10784489827166</v>
       </c>
       <c r="N4">
-        <v>1.077402078768151</v>
+        <v>1.089958138199244</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.060177767260995</v>
+        <v>1.084544694870168</v>
       </c>
       <c r="D5">
-        <v>1.063769248673218</v>
+        <v>1.07703775909934</v>
       </c>
       <c r="E5">
-        <v>1.075441224692034</v>
+        <v>1.098431408788879</v>
       </c>
       <c r="F5">
-        <v>1.079112867069535</v>
+        <v>1.106016545979018</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074187041444704</v>
+        <v>1.06370142346644</v>
       </c>
       <c r="J5">
-        <v>1.077741262521412</v>
+        <v>1.088763447575424</v>
       </c>
       <c r="K5">
-        <v>1.072947609093061</v>
+        <v>1.079372581127689</v>
       </c>
       <c r="L5">
-        <v>1.08450314327545</v>
+        <v>1.100718558796105</v>
       </c>
       <c r="M5">
-        <v>1.088138788356298</v>
+        <v>1.108287266845303</v>
       </c>
       <c r="N5">
-        <v>1.079271778732843</v>
+        <v>1.090309616553894</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.060567000717672</v>
+        <v>1.084619217153021</v>
       </c>
       <c r="D6">
-        <v>1.064082052526156</v>
+        <v>1.077096339564283</v>
       </c>
       <c r="E6">
-        <v>1.075825577251722</v>
+        <v>1.098507369013822</v>
       </c>
       <c r="F6">
-        <v>1.079523631343499</v>
+        <v>1.106099050200132</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07436719756525</v>
+        <v>1.063730238704541</v>
       </c>
       <c r="J6">
-        <v>1.078052342655478</v>
+        <v>1.088822321962225</v>
       </c>
       <c r="K6">
-        <v>1.073222533372192</v>
+        <v>1.07942268796775</v>
       </c>
       <c r="L6">
-        <v>1.08484949079401</v>
+        <v>1.100786190804854</v>
       </c>
       <c r="M6">
-        <v>1.088511474154</v>
+        <v>1.10836149239136</v>
       </c>
       <c r="N6">
-        <v>1.079583300636381</v>
+        <v>1.090368574549078</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.057874097940399</v>
+        <v>1.084106492464315</v>
       </c>
       <c r="D7">
-        <v>1.061917562891876</v>
+        <v>1.076693222710094</v>
       </c>
       <c r="E7">
-        <v>1.073166832521312</v>
+        <v>1.097984783060344</v>
       </c>
       <c r="F7">
-        <v>1.076682461042184</v>
+        <v>1.105531482518624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073119360239178</v>
+        <v>1.063531822068063</v>
       </c>
       <c r="J7">
-        <v>1.075899324501445</v>
+        <v>1.088417161269343</v>
       </c>
       <c r="K7">
-        <v>1.0713192301845</v>
+        <v>1.079077792292125</v>
       </c>
       <c r="L7">
-        <v>1.082452934126271</v>
+        <v>1.100320831469675</v>
       </c>
       <c r="M7">
-        <v>1.08593304868698</v>
+        <v>1.107850812587025</v>
       </c>
       <c r="N7">
-        <v>1.077427224949614</v>
+        <v>1.089962838481539</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.046183578632949</v>
+        <v>1.081955919236475</v>
       </c>
       <c r="D8">
-        <v>1.052512304206207</v>
+        <v>1.075000537247637</v>
       </c>
       <c r="E8">
-        <v>1.061634880615899</v>
+        <v>1.095793648360611</v>
       </c>
       <c r="F8">
-        <v>1.064366188726183</v>
+        <v>1.103152722918058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067665911179545</v>
+        <v>1.062695505373157</v>
       </c>
       <c r="J8">
-        <v>1.066531943291964</v>
+        <v>1.086715361081471</v>
       </c>
       <c r="K8">
-        <v>1.063025014820217</v>
+        <v>1.077627343363876</v>
       </c>
       <c r="L8">
-        <v>1.072040003602118</v>
+        <v>1.098367910463327</v>
       </c>
       <c r="M8">
-        <v>1.074739543328624</v>
+        <v>1.105708899292819</v>
       </c>
       <c r="N8">
-        <v>1.068046540984362</v>
+        <v>1.088258621542201</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.023669691852498</v>
+        <v>1.078137126520849</v>
       </c>
       <c r="D9">
-        <v>1.034371655142212</v>
+        <v>1.071987852387151</v>
       </c>
       <c r="E9">
-        <v>1.039470689283347</v>
+        <v>1.091905876030552</v>
       </c>
       <c r="F9">
-        <v>1.040720345827323</v>
+        <v>1.098935730344065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057023178143548</v>
+        <v>1.061195043760582</v>
       </c>
       <c r="J9">
-        <v>1.048413434437572</v>
+        <v>1.083684416815331</v>
       </c>
       <c r="K9">
-        <v>1.046930647354473</v>
+        <v>1.075037335621091</v>
       </c>
       <c r="L9">
-        <v>1.051954271058744</v>
+        <v>1.094896254665589</v>
       </c>
       <c r="M9">
-        <v>1.053185589337038</v>
+        <v>1.101905804632014</v>
       </c>
       <c r="N9">
-        <v>1.049902301769175</v>
+        <v>1.085223372987548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007053122048671</v>
+        <v>1.075570625389669</v>
       </c>
       <c r="D10">
-        <v>1.020971153231035</v>
+        <v>1.069958453502806</v>
       </c>
       <c r="E10">
-        <v>1.023147328733738</v>
+        <v>1.089295083103433</v>
       </c>
       <c r="F10">
-        <v>1.023321900800027</v>
+        <v>1.096106325653557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049074100094983</v>
+        <v>1.060176266517008</v>
       </c>
       <c r="J10">
-        <v>1.034989671422859</v>
+        <v>1.081641327041812</v>
       </c>
       <c r="K10">
-        <v>1.034971816347624</v>
+        <v>1.073286954240416</v>
       </c>
       <c r="L10">
-        <v>1.037110860536751</v>
+        <v>1.092560481165627</v>
       </c>
       <c r="M10">
-        <v>1.037282462776527</v>
+        <v>1.099350076181228</v>
       </c>
       <c r="N10">
-        <v>1.036459475471254</v>
+        <v>1.083177381792206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9993859720892008</v>
+        <v>1.07445418214412</v>
       </c>
       <c r="D11">
-        <v>1.014787252609461</v>
+        <v>1.069074554341474</v>
       </c>
       <c r="E11">
-        <v>1.01562511540917</v>
+        <v>1.088159866788177</v>
       </c>
       <c r="F11">
-        <v>1.015307639030836</v>
+        <v>1.09487663793464</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045384510124757</v>
+        <v>1.059730637433433</v>
       </c>
       <c r="J11">
-        <v>1.028784317669531</v>
+        <v>1.080751130620834</v>
       </c>
       <c r="K11">
-        <v>1.029435588912261</v>
+        <v>1.072523225287201</v>
       </c>
       <c r="L11">
-        <v>1.030258260504114</v>
+        <v>1.09154379745792</v>
       </c>
       <c r="M11">
-        <v>1.029946536421438</v>
+        <v>1.098238373351859</v>
       </c>
       <c r="N11">
-        <v>1.030245309403833</v>
+        <v>1.082285921190203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9964575159892004</v>
+        <v>1.074038695008102</v>
       </c>
       <c r="D12">
-        <v>1.012425431968688</v>
+        <v>1.068745444571435</v>
       </c>
       <c r="E12">
-        <v>1.012753598393437</v>
+        <v>1.087737467762276</v>
       </c>
       <c r="F12">
-        <v>1.012248746952351</v>
+        <v>1.094419175026265</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043972076369687</v>
+        <v>1.059564426823697</v>
       </c>
       <c r="J12">
-        <v>1.026412560481698</v>
+        <v>1.080419625559544</v>
       </c>
       <c r="K12">
-        <v>1.027318390174824</v>
+        <v>1.072238655765769</v>
       </c>
       <c r="L12">
-        <v>1.027640471657088</v>
+        <v>1.091165344847796</v>
       </c>
       <c r="M12">
-        <v>1.027144983426437</v>
+        <v>1.097824658646187</v>
       </c>
       <c r="N12">
-        <v>1.027870184048749</v>
+        <v>1.081953945353702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9970894995512554</v>
+        <v>1.07412785449212</v>
       </c>
       <c r="D13">
-        <v>1.012935122350077</v>
+        <v>1.068816075748571</v>
       </c>
       <c r="E13">
-        <v>1.013373220476489</v>
+        <v>1.087828107092443</v>
       </c>
       <c r="F13">
-        <v>1.012908781442172</v>
+        <v>1.094517334478654</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044277033526225</v>
+        <v>1.059600110672191</v>
       </c>
       <c r="J13">
-        <v>1.026924476122816</v>
+        <v>1.080490773090765</v>
       </c>
       <c r="K13">
-        <v>1.027775415579855</v>
+        <v>1.072299737254476</v>
       </c>
       <c r="L13">
-        <v>1.028205429342674</v>
+        <v>1.091246561208842</v>
       </c>
       <c r="M13">
-        <v>1.02774956103949</v>
+        <v>1.097913437407699</v>
       </c>
       <c r="N13">
-        <v>1.028382826668794</v>
+        <v>1.082025193922578</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9991456103360693</v>
+        <v>1.074419854085459</v>
       </c>
       <c r="D14">
-        <v>1.014593395541509</v>
+        <v>1.06904736623753</v>
       </c>
       <c r="E14">
-        <v>1.015389394312799</v>
+        <v>1.08812496613884</v>
       </c>
       <c r="F14">
-        <v>1.015056527469151</v>
+        <v>1.094838838351032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045268644677708</v>
+        <v>1.059716912422689</v>
       </c>
       <c r="J14">
-        <v>1.028589681089509</v>
+        <v>1.080723745672484</v>
       </c>
       <c r="K14">
-        <v>1.029261866384971</v>
+        <v>1.072499720854458</v>
       </c>
       <c r="L14">
-        <v>1.030043406161923</v>
+        <v>1.091512531096476</v>
       </c>
       <c r="M14">
-        <v>1.029716582120294</v>
+        <v>1.098204191564196</v>
       </c>
       <c r="N14">
-        <v>1.030050396417541</v>
+        <v>1.082258497352085</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000401456328301</v>
+        <v>1.074599659348685</v>
       </c>
       <c r="D15">
-        <v>1.015606268952651</v>
+        <v>1.069189766752426</v>
       </c>
       <c r="E15">
-        <v>1.016621058560868</v>
+        <v>1.088307773599551</v>
       </c>
       <c r="F15">
-        <v>1.016368626563802</v>
+        <v>1.095036833838987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045873891210963</v>
+        <v>1.059788786902937</v>
       </c>
       <c r="J15">
-        <v>1.029606555921741</v>
+        <v>1.08086717510892</v>
       </c>
       <c r="K15">
-        <v>1.030169428182808</v>
+        <v>1.072622819422014</v>
       </c>
       <c r="L15">
-        <v>1.031165963050328</v>
+        <v>1.091676295912835</v>
       </c>
       <c r="M15">
-        <v>1.030918067549533</v>
+        <v>1.098383231020959</v>
       </c>
       <c r="N15">
-        <v>1.031068715328673</v>
+        <v>1.082402130474773</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007551241117974</v>
+        <v>1.075644610282715</v>
       </c>
       <c r="D16">
-        <v>1.02137291143072</v>
+        <v>1.07001700501776</v>
       </c>
       <c r="E16">
-        <v>1.023636240000963</v>
+        <v>1.089370322476415</v>
       </c>
       <c r="F16">
-        <v>1.023842858584466</v>
+        <v>1.096187838645475</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049313364072389</v>
+        <v>1.060205746024782</v>
       </c>
       <c r="J16">
-        <v>1.035392592862845</v>
+        <v>1.081700288645047</v>
       </c>
       <c r="K16">
-        <v>1.035331126947784</v>
+        <v>1.073337516904847</v>
       </c>
       <c r="L16">
-        <v>1.037555993250514</v>
+        <v>1.092627842374826</v>
       </c>
       <c r="M16">
-        <v>1.037759111557009</v>
+        <v>1.099423748085743</v>
       </c>
       <c r="N16">
-        <v>1.0368629691059</v>
+        <v>1.08323642712768</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011903503961796</v>
+        <v>1.076298692920608</v>
       </c>
       <c r="D17">
-        <v>1.024883175234451</v>
+        <v>1.070534518336025</v>
       </c>
       <c r="E17">
-        <v>1.027909140721266</v>
+        <v>1.090035552654574</v>
       </c>
       <c r="F17">
-        <v>1.028396206344317</v>
+        <v>1.096908604503379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051401485577428</v>
+        <v>1.060466084365175</v>
       </c>
       <c r="J17">
-        <v>1.038911810222395</v>
+        <v>1.082221388030039</v>
       </c>
       <c r="K17">
-        <v>1.038468539148076</v>
+        <v>1.07378426389346</v>
       </c>
       <c r="L17">
-        <v>1.041444899304907</v>
+        <v>1.093223296528225</v>
       </c>
       <c r="M17">
-        <v>1.041924015401558</v>
+        <v>1.10007506993322</v>
       </c>
       <c r="N17">
-        <v>1.040387184157761</v>
+        <v>1.08375826653357</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014397296112846</v>
+        <v>1.076679714487641</v>
       </c>
       <c r="D18">
-        <v>1.026894432468805</v>
+        <v>1.070835878680596</v>
       </c>
       <c r="E18">
-        <v>1.030358345392762</v>
+        <v>1.090423115502333</v>
       </c>
       <c r="F18">
-        <v>1.031006479135798</v>
+        <v>1.097328578696867</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052595928164867</v>
+        <v>1.060617502552841</v>
       </c>
       <c r="J18">
-        <v>1.040927211932662</v>
+        <v>1.082524804514391</v>
       </c>
       <c r="K18">
-        <v>1.040264537627188</v>
+        <v>1.074044285032547</v>
       </c>
       <c r="L18">
-        <v>1.043672851532975</v>
+        <v>1.093570106802983</v>
       </c>
       <c r="M18">
-        <v>1.044310635310711</v>
+        <v>1.100454488472409</v>
       </c>
       <c r="N18">
-        <v>1.042405447969626</v>
+        <v>1.084062113904132</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.015240276823794</v>
+        <v>1.076809549829417</v>
       </c>
       <c r="D19">
-        <v>1.027574281833132</v>
+        <v>1.07093855103884</v>
       </c>
       <c r="E19">
-        <v>1.03118640091837</v>
+        <v>1.090555187875379</v>
       </c>
       <c r="F19">
-        <v>1.031889045544446</v>
+        <v>1.097471705650765</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052999342292335</v>
+        <v>1.060669059116939</v>
       </c>
       <c r="J19">
-        <v>1.041608298553852</v>
+        <v>1.082628171956025</v>
       </c>
       <c r="K19">
-        <v>1.040871351254407</v>
+        <v>1.074132851182374</v>
       </c>
       <c r="L19">
-        <v>1.044425909388799</v>
+        <v>1.093688274509837</v>
       </c>
       <c r="M19">
-        <v>1.045117416976226</v>
+        <v>1.10058377845303</v>
       </c>
       <c r="N19">
-        <v>1.04308750181194</v>
+        <v>1.08416562813939</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011441245722329</v>
+        <v>1.076228567257108</v>
       </c>
       <c r="D20">
-        <v>1.024510353508571</v>
+        <v>1.070479045514235</v>
       </c>
       <c r="E20">
-        <v>1.02745521848676</v>
+        <v>1.089964226917881</v>
       </c>
       <c r="F20">
-        <v>1.027912458703127</v>
+        <v>1.096831318428531</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051179914521156</v>
+        <v>1.060438197354567</v>
       </c>
       <c r="J20">
-        <v>1.038538141050535</v>
+        <v>1.082165534140101</v>
       </c>
       <c r="K20">
-        <v>1.038135487813123</v>
+        <v>1.073736390078165</v>
       </c>
       <c r="L20">
-        <v>1.041031889699686</v>
+        <v>1.093159462613552</v>
       </c>
       <c r="M20">
-        <v>1.041481637217177</v>
+        <v>1.10000523972014</v>
       </c>
       <c r="N20">
-        <v>1.040012984332817</v>
+        <v>1.083702333324701</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9985424469508528</v>
+        <v>1.074333889459867</v>
       </c>
       <c r="D21">
-        <v>1.014106933510516</v>
+        <v>1.06897927889502</v>
       </c>
       <c r="E21">
-        <v>1.01479790202736</v>
+        <v>1.08803756883157</v>
       </c>
       <c r="F21">
-        <v>1.014426423238654</v>
+        <v>1.094744183022524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044977841033021</v>
+        <v>1.059682536178766</v>
       </c>
       <c r="J21">
-        <v>1.028101234512891</v>
+        <v>1.080655164553427</v>
       </c>
       <c r="K21">
-        <v>1.028825885285806</v>
+        <v>1.072440855263045</v>
       </c>
       <c r="L21">
-        <v>1.029504244182581</v>
+        <v>1.091434232127322</v>
       </c>
       <c r="M21">
-        <v>1.02913954180399</v>
+        <v>1.098118593365725</v>
       </c>
       <c r="N21">
-        <v>1.029561256190759</v>
+        <v>1.082189818839973</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9899602319625339</v>
+        <v>1.073138047458521</v>
       </c>
       <c r="D22">
-        <v>1.007185807151072</v>
+        <v>1.06803173597237</v>
       </c>
       <c r="E22">
-        <v>1.006385739507659</v>
+        <v>1.086821974175306</v>
       </c>
       <c r="F22">
-        <v>1.005466152294735</v>
+        <v>1.093427845442131</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040832508377721</v>
+        <v>1.059203459174151</v>
       </c>
       <c r="J22">
-        <v>1.021147493918709</v>
+        <v>1.079700629531715</v>
       </c>
       <c r="K22">
-        <v>1.022616243324052</v>
+        <v>1.071621164108556</v>
       </c>
       <c r="L22">
-        <v>1.021831746271955</v>
+        <v>1.090344809890701</v>
       </c>
       <c r="M22">
-        <v>1.020930095844548</v>
+        <v>1.096927868454614</v>
       </c>
       <c r="N22">
-        <v>1.022597640487328</v>
+        <v>1.081233928269044</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9945583303380369</v>
+        <v>1.073772426901671</v>
       </c>
       <c r="D23">
-        <v>1.010893786916942</v>
+        <v>1.068534485816731</v>
       </c>
       <c r="E23">
-        <v>1.010891803675691</v>
+        <v>1.08746679114873</v>
       </c>
       <c r="F23">
-        <v>1.010265586935787</v>
+        <v>1.094126053868194</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043055180689231</v>
+        <v>1.059457805719982</v>
       </c>
       <c r="J23">
-        <v>1.024873961308651</v>
+        <v>1.080207117141256</v>
       </c>
       <c r="K23">
-        <v>1.025944595137144</v>
+        <v>1.072056189837144</v>
       </c>
       <c r="L23">
-        <v>1.025942649200686</v>
+        <v>1.090922784933968</v>
       </c>
       <c r="M23">
-        <v>1.025328221174563</v>
+        <v>1.097559528759963</v>
       </c>
       <c r="N23">
-        <v>1.026329399888396</v>
+        <v>1.081741135149085</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011650258087884</v>
+        <v>1.076260255551258</v>
       </c>
       <c r="D24">
-        <v>1.024678926973547</v>
+        <v>1.070504112828224</v>
       </c>
       <c r="E24">
-        <v>1.027660458937103</v>
+        <v>1.089996457352634</v>
       </c>
       <c r="F24">
-        <v>1.028131183687756</v>
+        <v>1.096866242026887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051280105287129</v>
+        <v>1.060450799631297</v>
       </c>
       <c r="J24">
-        <v>1.038707100752089</v>
+        <v>1.082190773752195</v>
       </c>
       <c r="K24">
-        <v>1.03828608393095</v>
+        <v>1.073758023921011</v>
       </c>
       <c r="L24">
-        <v>1.041218635122351</v>
+        <v>1.093188307981418</v>
       </c>
       <c r="M24">
-        <v>1.041681660156104</v>
+        <v>1.100036794490435</v>
       </c>
       <c r="N24">
-        <v>1.040182183976527</v>
+        <v>1.08372760877994</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.029746744607178</v>
+        <v>1.07912793962479</v>
       </c>
       <c r="D25">
-        <v>1.039270792691105</v>
+        <v>1.072770335522651</v>
       </c>
       <c r="E25">
-        <v>1.045447825913871</v>
+        <v>1.092914224603371</v>
       </c>
       <c r="F25">
-        <v>1.047094217365061</v>
+        <v>1.100029031851323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.059911868867369</v>
+        <v>1.061586169278816</v>
       </c>
       <c r="J25">
-        <v>1.053312870543654</v>
+        <v>1.084471885031795</v>
       </c>
       <c r="K25">
-        <v>1.051288601205921</v>
+        <v>1.075711037265888</v>
       </c>
       <c r="L25">
-        <v>1.05737933311223</v>
+        <v>1.095797453116983</v>
       </c>
       <c r="M25">
-        <v>1.059002938985516</v>
+        <v>1.102892506188762</v>
       </c>
       <c r="N25">
-        <v>1.054808695636501</v>
+        <v>1.086011959499204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081400327803546</v>
+        <v>1.043054202670717</v>
       </c>
       <c r="D2">
-        <v>1.074562766688935</v>
+        <v>1.049992626799747</v>
       </c>
       <c r="E2">
-        <v>1.095227783457438</v>
+        <v>1.058550697935187</v>
       </c>
       <c r="F2">
-        <v>1.102538653272681</v>
+        <v>1.061073971240228</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062478403897568</v>
+        <v>1.066196893794956</v>
       </c>
       <c r="J2">
-        <v>1.08627509629059</v>
+        <v>1.064019236895082</v>
       </c>
       <c r="K2">
-        <v>1.077251649604056</v>
+        <v>1.060796798047234</v>
       </c>
       <c r="L2">
-        <v>1.097863121809419</v>
+        <v>1.069250422590938</v>
       </c>
       <c r="M2">
-        <v>1.105155566555029</v>
+        <v>1.071743299848575</v>
       </c>
       <c r="N2">
-        <v>1.087817731524818</v>
+        <v>1.065530266256185</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083042002065808</v>
+        <v>1.052169276649182</v>
       </c>
       <c r="D3">
-        <v>1.07585574606842</v>
+        <v>1.057329551668496</v>
       </c>
       <c r="E3">
-        <v>1.096900055763648</v>
+        <v>1.067537335358184</v>
       </c>
       <c r="F3">
-        <v>1.104353676254857</v>
+        <v>1.070668745193265</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063118674605324</v>
+        <v>1.070465225240387</v>
       </c>
       <c r="J3">
-        <v>1.087575281359329</v>
+        <v>1.071332173610941</v>
       </c>
       <c r="K3">
-        <v>1.078360610103977</v>
+        <v>1.067277901483213</v>
       </c>
       <c r="L3">
-        <v>1.099354377496846</v>
+        <v>1.077373274227419</v>
       </c>
       <c r="M3">
-        <v>1.106790592075053</v>
+        <v>1.080470727033754</v>
       </c>
       <c r="N3">
-        <v>1.089119763005488</v>
+        <v>1.072853588180987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.084100554421431</v>
+        <v>1.057842704700012</v>
       </c>
       <c r="D4">
-        <v>1.076688553059084</v>
+        <v>1.061892324862997</v>
       </c>
       <c r="E4">
-        <v>1.097978731247905</v>
+        <v>1.073135842833983</v>
       </c>
       <c r="F4">
-        <v>1.105524910330211</v>
+        <v>1.076649348808009</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063529521904468</v>
+        <v>1.073104793729993</v>
       </c>
       <c r="J4">
-        <v>1.088412467652522</v>
+        <v>1.075874213979801</v>
       </c>
       <c r="K4">
-        <v>1.079073795846287</v>
+        <v>1.071297024938528</v>
       </c>
       <c r="L4">
-        <v>1.10031544142448</v>
+        <v>1.082424990740541</v>
       </c>
       <c r="M4">
-        <v>1.10784489827166</v>
+        <v>1.08590298991729</v>
       </c>
       <c r="N4">
-        <v>1.089958138199244</v>
+        <v>1.07740207876815</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084544694870168</v>
+        <v>1.060177767260993</v>
       </c>
       <c r="D5">
-        <v>1.07703775909934</v>
+        <v>1.063769248673216</v>
       </c>
       <c r="E5">
-        <v>1.098431408788879</v>
+        <v>1.075441224692032</v>
       </c>
       <c r="F5">
-        <v>1.106016545979018</v>
+        <v>1.079112867069533</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06370142346644</v>
+        <v>1.074187041444703</v>
       </c>
       <c r="J5">
-        <v>1.088763447575424</v>
+        <v>1.07774126252141</v>
       </c>
       <c r="K5">
-        <v>1.079372581127689</v>
+        <v>1.072947609093059</v>
       </c>
       <c r="L5">
-        <v>1.100718558796105</v>
+        <v>1.084503143275448</v>
       </c>
       <c r="M5">
-        <v>1.108287266845303</v>
+        <v>1.088138788356296</v>
       </c>
       <c r="N5">
-        <v>1.090309616553894</v>
+        <v>1.079271778732842</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084619217153021</v>
+        <v>1.060567000717669</v>
       </c>
       <c r="D6">
-        <v>1.077096339564283</v>
+        <v>1.064082052526154</v>
       </c>
       <c r="E6">
-        <v>1.098507369013822</v>
+        <v>1.075825577251719</v>
       </c>
       <c r="F6">
-        <v>1.106099050200132</v>
+        <v>1.079523631343497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063730238704541</v>
+        <v>1.074367197565249</v>
       </c>
       <c r="J6">
-        <v>1.088822321962225</v>
+        <v>1.078052342655476</v>
       </c>
       <c r="K6">
-        <v>1.07942268796775</v>
+        <v>1.07322253337219</v>
       </c>
       <c r="L6">
-        <v>1.100786190804854</v>
+        <v>1.084849490794007</v>
       </c>
       <c r="M6">
-        <v>1.10836149239136</v>
+        <v>1.088511474153998</v>
       </c>
       <c r="N6">
-        <v>1.090368574549078</v>
+        <v>1.079583300636379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.084106492464315</v>
+        <v>1.0578740979404</v>
       </c>
       <c r="D7">
-        <v>1.076693222710094</v>
+        <v>1.061917562891876</v>
       </c>
       <c r="E7">
-        <v>1.097984783060344</v>
+        <v>1.073166832521312</v>
       </c>
       <c r="F7">
-        <v>1.105531482518624</v>
+        <v>1.076682461042184</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063531822068063</v>
+        <v>1.073119360239178</v>
       </c>
       <c r="J7">
-        <v>1.088417161269343</v>
+        <v>1.075899324501445</v>
       </c>
       <c r="K7">
-        <v>1.079077792292125</v>
+        <v>1.0713192301845</v>
       </c>
       <c r="L7">
-        <v>1.100320831469675</v>
+        <v>1.082452934126271</v>
       </c>
       <c r="M7">
-        <v>1.107850812587025</v>
+        <v>1.08593304868698</v>
       </c>
       <c r="N7">
-        <v>1.089962838481539</v>
+        <v>1.077427224949614</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.081955919236475</v>
+        <v>1.046183578632946</v>
       </c>
       <c r="D8">
-        <v>1.075000537247637</v>
+        <v>1.052512304206205</v>
       </c>
       <c r="E8">
-        <v>1.095793648360611</v>
+        <v>1.061634880615896</v>
       </c>
       <c r="F8">
-        <v>1.103152722918058</v>
+        <v>1.06436618872618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062695505373157</v>
+        <v>1.067665911179544</v>
       </c>
       <c r="J8">
-        <v>1.086715361081471</v>
+        <v>1.066531943291962</v>
       </c>
       <c r="K8">
-        <v>1.077627343363876</v>
+        <v>1.063025014820214</v>
       </c>
       <c r="L8">
-        <v>1.098367910463327</v>
+        <v>1.072040003602115</v>
       </c>
       <c r="M8">
-        <v>1.105708899292819</v>
+        <v>1.074739543328622</v>
       </c>
       <c r="N8">
-        <v>1.088258621542201</v>
+        <v>1.06804654098436</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078137126520849</v>
+        <v>1.023669691852501</v>
       </c>
       <c r="D9">
-        <v>1.071987852387151</v>
+        <v>1.034371655142214</v>
       </c>
       <c r="E9">
-        <v>1.091905876030552</v>
+        <v>1.03947068928335</v>
       </c>
       <c r="F9">
-        <v>1.098935730344065</v>
+        <v>1.040720345827326</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061195043760582</v>
+        <v>1.057023178143549</v>
       </c>
       <c r="J9">
-        <v>1.083684416815331</v>
+        <v>1.048413434437575</v>
       </c>
       <c r="K9">
-        <v>1.075037335621091</v>
+        <v>1.046930647354476</v>
       </c>
       <c r="L9">
-        <v>1.094896254665589</v>
+        <v>1.051954271058747</v>
       </c>
       <c r="M9">
-        <v>1.101905804632014</v>
+        <v>1.053185589337041</v>
       </c>
       <c r="N9">
-        <v>1.085223372987548</v>
+        <v>1.049902301769178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.075570625389669</v>
+        <v>1.007053122048672</v>
       </c>
       <c r="D10">
-        <v>1.069958453502806</v>
+        <v>1.020971153231036</v>
       </c>
       <c r="E10">
-        <v>1.089295083103433</v>
+        <v>1.02314732873374</v>
       </c>
       <c r="F10">
-        <v>1.096106325653557</v>
+        <v>1.023321900800028</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060176266517008</v>
+        <v>1.049074100094984</v>
       </c>
       <c r="J10">
-        <v>1.081641327041812</v>
+        <v>1.03498967142286</v>
       </c>
       <c r="K10">
-        <v>1.073286954240416</v>
+        <v>1.034971816347626</v>
       </c>
       <c r="L10">
-        <v>1.092560481165627</v>
+        <v>1.037110860536752</v>
       </c>
       <c r="M10">
-        <v>1.099350076181228</v>
+        <v>1.037282462776528</v>
       </c>
       <c r="N10">
-        <v>1.083177381792206</v>
+        <v>1.036459475471255</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.07445418214412</v>
+        <v>0.9993859720892023</v>
       </c>
       <c r="D11">
-        <v>1.069074554341474</v>
+        <v>1.014787252609463</v>
       </c>
       <c r="E11">
-        <v>1.088159866788177</v>
+        <v>1.015625115409171</v>
       </c>
       <c r="F11">
-        <v>1.09487663793464</v>
+        <v>1.015307639030837</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059730637433433</v>
+        <v>1.045384510124758</v>
       </c>
       <c r="J11">
-        <v>1.080751130620834</v>
+        <v>1.028784317669533</v>
       </c>
       <c r="K11">
-        <v>1.072523225287201</v>
+        <v>1.029435588912263</v>
       </c>
       <c r="L11">
-        <v>1.09154379745792</v>
+        <v>1.030258260504116</v>
       </c>
       <c r="M11">
-        <v>1.098238373351859</v>
+        <v>1.029946536421439</v>
       </c>
       <c r="N11">
-        <v>1.082285921190203</v>
+        <v>1.030245309403834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.074038695008102</v>
+        <v>0.9964575159891979</v>
       </c>
       <c r="D12">
-        <v>1.068745444571435</v>
+        <v>1.012425431968686</v>
       </c>
       <c r="E12">
-        <v>1.087737467762276</v>
+        <v>1.012753598393434</v>
       </c>
       <c r="F12">
-        <v>1.094419175026265</v>
+        <v>1.012248746952349</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059564426823697</v>
+        <v>1.043972076369686</v>
       </c>
       <c r="J12">
-        <v>1.080419625559544</v>
+        <v>1.026412560481696</v>
       </c>
       <c r="K12">
-        <v>1.072238655765769</v>
+        <v>1.027318390174822</v>
       </c>
       <c r="L12">
-        <v>1.091165344847796</v>
+        <v>1.027640471657086</v>
       </c>
       <c r="M12">
-        <v>1.097824658646187</v>
+        <v>1.027144983426434</v>
       </c>
       <c r="N12">
-        <v>1.081953945353702</v>
+        <v>1.027870184048747</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.07412785449212</v>
+        <v>0.9970894995512591</v>
       </c>
       <c r="D13">
-        <v>1.068816075748571</v>
+        <v>1.01293512235008</v>
       </c>
       <c r="E13">
-        <v>1.087828107092443</v>
+        <v>1.013373220476493</v>
       </c>
       <c r="F13">
-        <v>1.094517334478654</v>
+        <v>1.012908781442176</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059600110672191</v>
+        <v>1.044277033526227</v>
       </c>
       <c r="J13">
-        <v>1.080490773090765</v>
+        <v>1.026924476122819</v>
       </c>
       <c r="K13">
-        <v>1.072299737254476</v>
+        <v>1.027775415579858</v>
       </c>
       <c r="L13">
-        <v>1.091246561208842</v>
+        <v>1.028205429342678</v>
       </c>
       <c r="M13">
-        <v>1.097913437407699</v>
+        <v>1.027749561039494</v>
       </c>
       <c r="N13">
-        <v>1.082025193922578</v>
+        <v>1.028382826668798</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.074419854085459</v>
+        <v>0.9991456103360687</v>
       </c>
       <c r="D14">
-        <v>1.06904736623753</v>
+        <v>1.014593395541509</v>
       </c>
       <c r="E14">
-        <v>1.08812496613884</v>
+        <v>1.015389394312798</v>
       </c>
       <c r="F14">
-        <v>1.094838838351032</v>
+        <v>1.015056527469151</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059716912422689</v>
+        <v>1.045268644677708</v>
       </c>
       <c r="J14">
-        <v>1.080723745672484</v>
+        <v>1.028589681089508</v>
       </c>
       <c r="K14">
-        <v>1.072499720854458</v>
+        <v>1.029261866384971</v>
       </c>
       <c r="L14">
-        <v>1.091512531096476</v>
+        <v>1.030043406161922</v>
       </c>
       <c r="M14">
-        <v>1.098204191564196</v>
+        <v>1.029716582120293</v>
       </c>
       <c r="N14">
-        <v>1.082258497352085</v>
+        <v>1.030050396417541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.074599659348685</v>
+        <v>1.000401456328304</v>
       </c>
       <c r="D15">
-        <v>1.069189766752426</v>
+        <v>1.015606268952655</v>
       </c>
       <c r="E15">
-        <v>1.088307773599551</v>
+        <v>1.016621058560871</v>
       </c>
       <c r="F15">
-        <v>1.095036833838987</v>
+        <v>1.016368626563805</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059788786902937</v>
+        <v>1.045873891210965</v>
       </c>
       <c r="J15">
-        <v>1.08086717510892</v>
+        <v>1.029606555921745</v>
       </c>
       <c r="K15">
-        <v>1.072622819422014</v>
+        <v>1.03016942818281</v>
       </c>
       <c r="L15">
-        <v>1.091676295912835</v>
+        <v>1.031165963050331</v>
       </c>
       <c r="M15">
-        <v>1.098383231020959</v>
+        <v>1.030918067549536</v>
       </c>
       <c r="N15">
-        <v>1.082402130474773</v>
+        <v>1.031068715328676</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.075644610282715</v>
+        <v>1.007551241117975</v>
       </c>
       <c r="D16">
-        <v>1.07001700501776</v>
+        <v>1.021372911430721</v>
       </c>
       <c r="E16">
-        <v>1.089370322476415</v>
+        <v>1.023636240000964</v>
       </c>
       <c r="F16">
-        <v>1.096187838645475</v>
+        <v>1.023842858584466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060205746024782</v>
+        <v>1.049313364072389</v>
       </c>
       <c r="J16">
-        <v>1.081700288645047</v>
+        <v>1.035392592862846</v>
       </c>
       <c r="K16">
-        <v>1.073337516904847</v>
+        <v>1.035331126947785</v>
       </c>
       <c r="L16">
-        <v>1.092627842374826</v>
+        <v>1.037555993250515</v>
       </c>
       <c r="M16">
-        <v>1.099423748085743</v>
+        <v>1.03775911155701</v>
       </c>
       <c r="N16">
-        <v>1.08323642712768</v>
+        <v>1.036862969105901</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076298692920608</v>
+        <v>1.011903503961797</v>
       </c>
       <c r="D17">
-        <v>1.070534518336025</v>
+        <v>1.024883175234452</v>
       </c>
       <c r="E17">
-        <v>1.090035552654574</v>
+        <v>1.027909140721267</v>
       </c>
       <c r="F17">
-        <v>1.096908604503379</v>
+        <v>1.028396206344318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060466084365175</v>
+        <v>1.051401485577429</v>
       </c>
       <c r="J17">
-        <v>1.082221388030039</v>
+        <v>1.038911810222396</v>
       </c>
       <c r="K17">
-        <v>1.07378426389346</v>
+        <v>1.038468539148077</v>
       </c>
       <c r="L17">
-        <v>1.093223296528225</v>
+        <v>1.041444899304908</v>
       </c>
       <c r="M17">
-        <v>1.10007506993322</v>
+        <v>1.041924015401559</v>
       </c>
       <c r="N17">
-        <v>1.08375826653357</v>
+        <v>1.040387184157762</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.076679714487641</v>
+        <v>1.014397296112846</v>
       </c>
       <c r="D18">
-        <v>1.070835878680596</v>
+        <v>1.026894432468804</v>
       </c>
       <c r="E18">
-        <v>1.090423115502333</v>
+        <v>1.030358345392762</v>
       </c>
       <c r="F18">
-        <v>1.097328578696867</v>
+        <v>1.031006479135797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060617502552841</v>
+        <v>1.052595928164867</v>
       </c>
       <c r="J18">
-        <v>1.082524804514391</v>
+        <v>1.040927211932661</v>
       </c>
       <c r="K18">
-        <v>1.074044285032547</v>
+        <v>1.040264537627188</v>
       </c>
       <c r="L18">
-        <v>1.093570106802983</v>
+        <v>1.043672851532975</v>
       </c>
       <c r="M18">
-        <v>1.100454488472409</v>
+        <v>1.04431063531071</v>
       </c>
       <c r="N18">
-        <v>1.084062113904132</v>
+        <v>1.042405447969626</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.076809549829417</v>
+        <v>1.015240276823797</v>
       </c>
       <c r="D19">
-        <v>1.07093855103884</v>
+        <v>1.027574281833133</v>
       </c>
       <c r="E19">
-        <v>1.090555187875379</v>
+        <v>1.031186400918373</v>
       </c>
       <c r="F19">
-        <v>1.097471705650765</v>
+        <v>1.031889045544449</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060669059116939</v>
+        <v>1.052999342292336</v>
       </c>
       <c r="J19">
-        <v>1.082628171956025</v>
+        <v>1.041608298553854</v>
       </c>
       <c r="K19">
-        <v>1.074132851182374</v>
+        <v>1.040871351254409</v>
       </c>
       <c r="L19">
-        <v>1.093688274509837</v>
+        <v>1.044425909388802</v>
       </c>
       <c r="M19">
-        <v>1.10058377845303</v>
+        <v>1.045117416976228</v>
       </c>
       <c r="N19">
-        <v>1.08416562813939</v>
+        <v>1.043087501811942</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076228567257108</v>
+        <v>1.011441245722328</v>
       </c>
       <c r="D20">
-        <v>1.070479045514235</v>
+        <v>1.02451035350857</v>
       </c>
       <c r="E20">
-        <v>1.089964226917881</v>
+        <v>1.02745521848676</v>
       </c>
       <c r="F20">
-        <v>1.096831318428531</v>
+        <v>1.027912458703127</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060438197354567</v>
+        <v>1.051179914521156</v>
       </c>
       <c r="J20">
-        <v>1.082165534140101</v>
+        <v>1.038538141050535</v>
       </c>
       <c r="K20">
-        <v>1.073736390078165</v>
+        <v>1.038135487813123</v>
       </c>
       <c r="L20">
-        <v>1.093159462613552</v>
+        <v>1.041031889699686</v>
       </c>
       <c r="M20">
-        <v>1.10000523972014</v>
+        <v>1.041481637217177</v>
       </c>
       <c r="N20">
-        <v>1.083702333324701</v>
+        <v>1.040012984332817</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.074333889459867</v>
+        <v>0.9985424469508526</v>
       </c>
       <c r="D21">
-        <v>1.06897927889502</v>
+        <v>1.014106933510516</v>
       </c>
       <c r="E21">
-        <v>1.08803756883157</v>
+        <v>1.014797902027359</v>
       </c>
       <c r="F21">
-        <v>1.094744183022524</v>
+        <v>1.014426423238654</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059682536178766</v>
+        <v>1.044977841033021</v>
       </c>
       <c r="J21">
-        <v>1.080655164553427</v>
+        <v>1.02810123451289</v>
       </c>
       <c r="K21">
-        <v>1.072440855263045</v>
+        <v>1.028825885285805</v>
       </c>
       <c r="L21">
-        <v>1.091434232127322</v>
+        <v>1.029504244182581</v>
       </c>
       <c r="M21">
-        <v>1.098118593365725</v>
+        <v>1.029139541803989</v>
       </c>
       <c r="N21">
-        <v>1.082189818839973</v>
+        <v>1.029561256190758</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.073138047458521</v>
+        <v>0.9899602319625348</v>
       </c>
       <c r="D22">
-        <v>1.06803173597237</v>
+        <v>1.007185807151073</v>
       </c>
       <c r="E22">
-        <v>1.086821974175306</v>
+        <v>1.00638573950766</v>
       </c>
       <c r="F22">
-        <v>1.093427845442131</v>
+        <v>1.005466152294736</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059203459174151</v>
+        <v>1.040832508377721</v>
       </c>
       <c r="J22">
-        <v>1.079700629531715</v>
+        <v>1.02114749391871</v>
       </c>
       <c r="K22">
-        <v>1.071621164108556</v>
+        <v>1.022616243324053</v>
       </c>
       <c r="L22">
-        <v>1.090344809890701</v>
+        <v>1.021831746271956</v>
       </c>
       <c r="M22">
-        <v>1.096927868454614</v>
+        <v>1.02093009584455</v>
       </c>
       <c r="N22">
-        <v>1.081233928269044</v>
+        <v>1.022597640487329</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.073772426901671</v>
+        <v>0.9945583303380369</v>
       </c>
       <c r="D23">
-        <v>1.068534485816731</v>
+        <v>1.010893786916941</v>
       </c>
       <c r="E23">
-        <v>1.08746679114873</v>
+        <v>1.010891803675691</v>
       </c>
       <c r="F23">
-        <v>1.094126053868194</v>
+        <v>1.010265586935787</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059457805719982</v>
+        <v>1.04305518068923</v>
       </c>
       <c r="J23">
-        <v>1.080207117141256</v>
+        <v>1.024873961308651</v>
       </c>
       <c r="K23">
-        <v>1.072056189837144</v>
+        <v>1.025944595137143</v>
       </c>
       <c r="L23">
-        <v>1.090922784933968</v>
+        <v>1.025942649200686</v>
       </c>
       <c r="M23">
-        <v>1.097559528759963</v>
+        <v>1.025328221174563</v>
       </c>
       <c r="N23">
-        <v>1.081741135149085</v>
+        <v>1.026329399888396</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076260255551258</v>
+        <v>1.011650258087886</v>
       </c>
       <c r="D24">
-        <v>1.070504112828224</v>
+        <v>1.024678926973548</v>
       </c>
       <c r="E24">
-        <v>1.089996457352634</v>
+        <v>1.027660458937104</v>
       </c>
       <c r="F24">
-        <v>1.096866242026887</v>
+        <v>1.028131183687758</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060450799631297</v>
+        <v>1.05128010528713</v>
       </c>
       <c r="J24">
-        <v>1.082190773752195</v>
+        <v>1.03870710075209</v>
       </c>
       <c r="K24">
-        <v>1.073758023921011</v>
+        <v>1.038286083930951</v>
       </c>
       <c r="L24">
-        <v>1.093188307981418</v>
+        <v>1.041218635122352</v>
       </c>
       <c r="M24">
-        <v>1.100036794490435</v>
+        <v>1.041681660156105</v>
       </c>
       <c r="N24">
-        <v>1.08372760877994</v>
+        <v>1.040182183976528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.07912793962479</v>
+        <v>1.029746744607174</v>
       </c>
       <c r="D25">
-        <v>1.072770335522651</v>
+        <v>1.039270792691101</v>
       </c>
       <c r="E25">
-        <v>1.092914224603371</v>
+        <v>1.045447825913866</v>
       </c>
       <c r="F25">
-        <v>1.100029031851323</v>
+        <v>1.047094217365056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061586169278816</v>
+        <v>1.059911868867366</v>
       </c>
       <c r="J25">
-        <v>1.084471885031795</v>
+        <v>1.05331287054365</v>
       </c>
       <c r="K25">
-        <v>1.075711037265888</v>
+        <v>1.051288601205917</v>
       </c>
       <c r="L25">
-        <v>1.095797453116983</v>
+        <v>1.057379333112225</v>
       </c>
       <c r="M25">
-        <v>1.102892506188762</v>
+        <v>1.059002938985511</v>
       </c>
       <c r="N25">
-        <v>1.086011959499204</v>
+        <v>1.054808695636497</v>
       </c>
     </row>
   </sheetData>
